--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_0_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_0_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22445.61410523156</v>
+        <v>1346736.846313893</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22445.61410523156</v>
+        <v>1346736.846313893</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1187917930.983495</v>
+        <v>46660488.2869869</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10376.70272705761</v>
+        <v>976017.2062577609</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20753.40545411522</v>
+        <v>1952034.412515521</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31130.10818117283</v>
+        <v>2928051.618773283</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42589.04123966163</v>
+        <v>3845428.372128764</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54047.9742981504</v>
+        <v>4762805.125484244</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64745.53796418972</v>
+        <v>5716940.430094129</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75443.10163022904</v>
+        <v>6671075.734704012</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86140.66529626834</v>
+        <v>7625211.039313895</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97599.59835475715</v>
+        <v>8542587.792669371</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109058.531413246</v>
+        <v>9459964.546024846</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>119549.8507903473</v>
+        <v>10435981.75228261</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130041.1701674486</v>
+        <v>11411998.95854037</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140532.48954455</v>
+        <v>12388016.16479814</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151991.4226030388</v>
+        <v>13305392.91815363</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163450.3556615276</v>
+        <v>14222769.67150912</v>
       </c>
     </row>
   </sheetData>
